--- a/ONCHO/Impact Assessments/Benin/bj_oncho_prestop_5_covid_daily_checking.xlsx
+++ b/ONCHO/Impact Assessments/Benin/bj_oncho_prestop_5_covid_daily_checking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\Impact Assessments\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD928E8-A4D0-40C5-9078-B0B98668538F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943CAD20-1DAF-494E-B246-8847C640EF89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>bj_oncho_prestop_5_covid_daily_checking</t>
   </si>
   <si>
-    <t>Benin ONCHO Pre stop TDM - 4. COVID - Formulaire de suivi quotidien</t>
-  </si>
-  <si>
     <t>region_list</t>
   </si>
   <si>
@@ -945,6 +942,9 @@
   </si>
   <si>
     <t>${circuit_retroaction} = 'Commentaires./.Plan.d.Action'</t>
+  </si>
+  <si>
+    <t>Benin ONCHO Pre stop TDM - 5. COVID - Formulaire de suivi quotidien</t>
   </si>
 </sst>
 </file>
@@ -1374,30 +1374,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.38671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="47.5" customWidth="1"/>
-    <col min="4" max="4" width="47.38671875" customWidth="1"/>
-    <col min="5" max="5" width="12.609375" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="28" style="16" customWidth="1"/>
-    <col min="9" max="9" width="12.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.71875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" customWidth="1"/>
-    <col min="12" max="12" width="36.609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -1435,15 +1435,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1457,15 +1457,15 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1478,18 +1478,18 @@
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1502,18 +1502,18 @@
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1527,15 +1527,15 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1549,7 +1549,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="6"/>
@@ -1571,15 +1571,15 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="6"/>
@@ -1593,15 +1593,15 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
@@ -1615,12 +1615,12 @@
       <c r="K9" s="6"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1635,15 +1635,15 @@
       <c r="K10" s="6"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
@@ -1657,22 +1657,22 @@
       <c r="K11" s="6"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="9"/>
       <c r="H12" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6" t="s">
@@ -1681,15 +1681,15 @@
       <c r="K12" s="6"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
@@ -1703,22 +1703,22 @@
       <c r="K13" s="6"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="9"/>
       <c r="H14" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
@@ -1727,15 +1727,15 @@
       <c r="K14" s="6"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
@@ -1749,22 +1749,22 @@
       <c r="K15" s="6"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="9"/>
       <c r="H16" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
@@ -1773,15 +1773,15 @@
       <c r="K16" s="6"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
@@ -1795,22 +1795,22 @@
       <c r="K17" s="6"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="9"/>
       <c r="H18" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
@@ -1819,15 +1819,15 @@
       <c r="K18" s="6"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="6"/>
@@ -1841,22 +1841,22 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="6"/>
       <c r="F20" s="10"/>
       <c r="G20" s="9"/>
       <c r="H20" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
@@ -1865,9 +1865,9 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="9"/>
@@ -1883,7 +1883,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="6"/>
       <c r="C22" s="9"/>
@@ -1899,12 +1899,12 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1919,15 +1919,15 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="6"/>
@@ -1941,22 +1941,22 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="6"/>
       <c r="F25" s="10"/>
       <c r="G25" s="9"/>
       <c r="H25" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6" t="s">
@@ -1965,15 +1965,15 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="6"/>
@@ -1987,22 +1987,22 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="6"/>
       <c r="F27" s="10"/>
       <c r="G27" s="9"/>
       <c r="H27" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6" t="s">
@@ -2011,15 +2011,15 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" s="4" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="6"/>
@@ -2033,22 +2033,22 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="6"/>
       <c r="F29" s="10"/>
       <c r="G29" s="9"/>
       <c r="H29" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6" t="s">
@@ -2057,15 +2057,15 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" s="4" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="6"/>
@@ -2079,22 +2079,22 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="6"/>
       <c r="F31" s="10"/>
       <c r="G31" s="9"/>
       <c r="H31" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6" t="s">
@@ -2103,15 +2103,15 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="6"/>
@@ -2125,22 +2125,22 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="6"/>
       <c r="F33" s="10"/>
       <c r="G33" s="9"/>
       <c r="H33" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6" t="s">
@@ -2149,15 +2149,15 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="6"/>
@@ -2171,22 +2171,22 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="6"/>
       <c r="F35" s="10"/>
       <c r="G35" s="9"/>
       <c r="H35" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6" t="s">
@@ -2195,15 +2195,15 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="6"/>
@@ -2217,22 +2217,22 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="6"/>
       <c r="F37" s="10"/>
       <c r="G37" s="9"/>
       <c r="H37" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6" t="s">
@@ -2241,15 +2241,15 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="6"/>
@@ -2263,22 +2263,22 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="6"/>
       <c r="F39" s="10"/>
       <c r="G39" s="9"/>
       <c r="H39" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6" t="s">
@@ -2287,15 +2287,15 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" s="4" customFormat="1" ht="78.349999999999994" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" s="4" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="6"/>
@@ -2309,22 +2309,22 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="6"/>
       <c r="F41" s="10"/>
       <c r="G41" s="9"/>
       <c r="H41" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6" t="s">
@@ -2333,15 +2333,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="6"/>
@@ -2355,22 +2355,22 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="6"/>
       <c r="F43" s="10"/>
       <c r="G43" s="9"/>
       <c r="H43" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
@@ -2379,15 +2379,15 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="6"/>
@@ -2401,22 +2401,22 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="6"/>
       <c r="F45" s="10"/>
       <c r="G45" s="9"/>
       <c r="H45" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6" t="s">
@@ -2425,7 +2425,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="6"/>
       <c r="C46" s="9"/>
@@ -2441,9 +2441,9 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="9"/>
@@ -2459,7 +2459,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="6"/>
       <c r="C48" s="9"/>
@@ -2475,12 +2475,12 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2495,15 +2495,15 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="6"/>
@@ -2517,22 +2517,22 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="6"/>
       <c r="F51" s="10"/>
       <c r="G51" s="9"/>
       <c r="H51" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6" t="s">
@@ -2541,15 +2541,15 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="6"/>
@@ -2563,22 +2563,22 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="6"/>
       <c r="F53" s="10"/>
       <c r="G53" s="9"/>
       <c r="H53" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6" t="s">
@@ -2587,15 +2587,15 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:12" s="4" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="6"/>
@@ -2609,22 +2609,22 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="6"/>
       <c r="F55" s="10"/>
       <c r="G55" s="9"/>
       <c r="H55" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6" t="s">
@@ -2633,15 +2633,15 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="6"/>
@@ -2655,22 +2655,22 @@
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="6"/>
       <c r="F57" s="10"/>
       <c r="G57" s="9"/>
       <c r="H57" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6" t="s">
@@ -2679,15 +2679,15 @@
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="1:12" s="4" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="6"/>
@@ -2701,22 +2701,22 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="1:12" s="4" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="6"/>
       <c r="F59" s="10"/>
       <c r="G59" s="9"/>
       <c r="H59" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6" t="s">
@@ -2725,9 +2725,9 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="9"/>
@@ -2741,7 +2741,7 @@
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="6"/>
       <c r="C61" s="9"/>
@@ -2755,7 +2755,7 @@
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
     </row>
-    <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>19</v>
       </c>
@@ -2775,7 +2775,7 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>20</v>
       </c>
@@ -2793,7 +2793,7 @@
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
     </row>
-    <row r="64" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>21</v>
       </c>
@@ -2826,14 +2826,14 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.38671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2844,16 +2844,16 @@
         <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>31</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -2908,2382 +2908,2382 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F156" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B158" s="15" t="s">
         <v>17</v>
@@ -5292,9 +5292,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B159" s="15" t="s">
         <v>18</v>
@@ -5303,37 +5303,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B160" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="C160" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B161" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C160" s="15" t="s">
+      <c r="C161" s="15" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B161" s="15" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B162" t="s">
+        <v>279</v>
+      </c>
+      <c r="C162" t="s">
         <v>211</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B162" t="s">
-        <v>280</v>
-      </c>
-      <c r="C162" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5349,18 +5349,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.38671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5377,9 +5377,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
